--- a/calculations/calculations.xlsx
+++ b/calculations/calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\dddd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\DDDD-Project\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57C4EB2-6DE8-4A7F-8106-CA28F0797AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3D2D-5E4C-47F4-9040-113E2996DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,12 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -398,18 +401,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +432,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
@@ -442,7 +446,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>7</v>
@@ -456,7 +460,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -470,7 +474,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
@@ -484,7 +488,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -498,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -512,7 +516,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -526,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -540,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -554,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
@@ -568,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>
@@ -582,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>6</v>
@@ -596,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -607,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -618,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -629,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>9</v>
@@ -640,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -648,7 +652,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -656,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -672,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -680,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -688,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,9 +885,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <f>TTEST(A2:A53, B2:B25,2,2)</f>
-        <v>0.36533873214117263</v>
+      <c r="A56" s="3">
+        <f>TTEST(A2:A53,B2:B25,2,2)</f>
+        <v>4.3474019572027124E-19</v>
       </c>
       <c r="B56" s="1"/>
       <c r="D56">

--- a/calculations/calculations.xlsx
+++ b/calculations/calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\DDDD-Project\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A3D2D-5E4C-47F4-9040-113E2996DC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933C2C5-D203-4D1B-804D-C969B0C657AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
